--- a/Topics_to_be_completed.xlsx
+++ b/Topics_to_be_completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb6afe25b8f4bd1/Desktop/React/react-development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC1048E6A15F70FE5ADE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBC00829-2413-4652-9F60-BE0926CEE9B6}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC1048E6A15F70FE5ADE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7B58AD5-0DEE-4B10-80F3-D7EB19E7F1F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Web pack</t>
   </si>
@@ -134,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +500,7 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -501,7 +508,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -509,10 +516,16 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
